--- a/frontend/public/template/商品信息导入模板.xlsx
+++ b/frontend/public/template/商品信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26240" windowHeight="13500"/>
+    <workbookView windowWidth="24220" windowHeight="13360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>部门</t>
+  </si>
   <si>
     <t>店铺名称</t>
   </si>
@@ -66,13 +69,20 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -545,141 +555,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1207,50 +1220,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="11.8557692307692" customWidth="1"/>
-    <col min="4" max="4" width="11.0480769230769" customWidth="1"/>
-    <col min="5" max="5" width="11.6923076923077" customWidth="1"/>
-    <col min="6" max="6" width="10.8942307692308" customWidth="1"/>
-    <col min="7" max="7" width="10.5673076923077" customWidth="1"/>
-    <col min="8" max="8" width="11.6923076923077" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="9.24038461538461" customWidth="1"/>
+    <col min="2" max="2" width="13.4711538461538" customWidth="1"/>
+    <col min="3" max="3" width="9.43269230769231" customWidth="1"/>
+    <col min="4" max="4" width="9.24038461538461" customWidth="1"/>
+    <col min="5" max="10" width="13.4711538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:9">
+    <row r="1" ht="22.5" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/public/template/商品信息导入模板.xlsx
+++ b/frontend/public/template/商品信息导入模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>部门</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>SKU</t>
+  </si>
+  <si>
+    <t>负责人</t>
   </si>
   <si>
     <t>货号</t>
@@ -1220,10 +1223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1231,11 +1234,11 @@
     <col min="1" max="1" width="9.24038461538461" customWidth="1"/>
     <col min="2" max="2" width="13.4711538461538" customWidth="1"/>
     <col min="3" max="3" width="9.43269230769231" customWidth="1"/>
-    <col min="4" max="4" width="9.24038461538461" customWidth="1"/>
-    <col min="5" max="10" width="13.4711538461538" customWidth="1"/>
+    <col min="4" max="5" width="9.24038461538461" customWidth="1"/>
+    <col min="6" max="11" width="13.4711538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:10">
+    <row r="1" ht="22.5" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,6 +1269,9 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
